--- a/results/mp/logistic/corona/confidence/210/masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,109 +40,112 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>infected</t>
   </si>
   <si>
-    <t>stress</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>lowest</t>
-  </si>
-  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
+    <t>fight</t>
   </si>
   <si>
     <t>demand</t>
@@ -151,229 +154,220 @@
     <t>oil</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
     <t>prices</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
-    <t>the</t>
+    <t>to</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>,</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -731,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -739,10 +733,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -800,13 +794,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -818,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -842,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -850,13 +844,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8611111111111112</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -868,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -892,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -921,16 +915,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -942,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -950,13 +944,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7945205479452054</v>
+        <v>0.791095890410959</v>
       </c>
       <c r="C6">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -968,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K6">
-        <v>0.8916666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -992,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1000,13 +994,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1018,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1042,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1050,13 +1044,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1068,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1092,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1100,13 +1094,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1118,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K9">
-        <v>0.8666666666666667</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1142,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1150,13 +1144,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7333333333333333</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1168,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K10">
-        <v>0.8482142857142857</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>313</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1192,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1200,13 +1194,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7241379310344828</v>
+        <v>0.72</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1218,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11">
-        <v>0.8302872062663186</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>318</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>318</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1242,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1250,13 +1244,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6842105263157895</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1268,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K12">
-        <v>0.8297872340425532</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1292,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1300,13 +1294,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6842105263157895</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1318,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.796875</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1342,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1350,13 +1344,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6538461538461539</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1368,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K14">
-        <v>0.7890625</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1392,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1400,38 +1394,38 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L15">
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>15</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="L15">
-        <v>22</v>
-      </c>
-      <c r="M15">
-        <v>22</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1442,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1450,13 +1444,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6101694915254238</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1468,19 +1462,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K16">
-        <v>0.7816901408450704</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1492,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1500,13 +1494,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6086956521739131</v>
+        <v>0.55</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1518,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K17">
-        <v>0.7804878048780488</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1542,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1550,13 +1544,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1568,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K18">
-        <v>0.7758620689655172</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1592,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1600,13 +1594,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1618,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K19">
-        <v>0.775</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L19">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="M19">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1642,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1650,13 +1644,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5490196078431373</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1668,19 +1662,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K20">
-        <v>0.7641509433962265</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L20">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M20">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1692,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1700,13 +1694,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.544973544973545</v>
+        <v>0.5135658914728682</v>
       </c>
       <c r="C21">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="D21">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1718,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1742,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1750,13 +1744,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5232558139534884</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C22">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="D22">
-        <v>270</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1768,19 +1762,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K22">
-        <v>0.7407407407407407</v>
+        <v>0.75625</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1792,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1800,13 +1794,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5033557046979866</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C23">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1818,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K23">
-        <v>0.7301587301587301</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1842,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1850,13 +1844,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>0.4563758389261745</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1868,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K24">
-        <v>0.7272727272727273</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1892,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1900,13 +1894,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1921,16 +1915,16 @@
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K25">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1942,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1950,7 +1944,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4516129032258064</v>
+        <v>0.4375</v>
       </c>
       <c r="C26">
         <v>14</v>
@@ -1968,19 +1962,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K26">
-        <v>0.7209302325581395</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1992,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2000,13 +1994,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4516129032258064</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2018,19 +2012,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K27">
-        <v>0.7083333333333334</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2042,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2050,13 +2044,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.44</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2068,19 +2062,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K28">
-        <v>0.7083333333333334</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2100,13 +2094,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3846153846153846</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2118,19 +2112,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K29">
-        <v>0.7</v>
+        <v>0.675</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2142,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2150,13 +2144,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3846153846153846</v>
+        <v>0.3722222222222222</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2168,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K30">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2192,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2200,13 +2194,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3818181818181818</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2218,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K31">
-        <v>0.6818181818181818</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2242,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2250,13 +2244,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.375</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2268,19 +2262,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K32">
-        <v>0.6666666666666666</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2292,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2300,13 +2294,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3694444444444445</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C33">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2318,19 +2312,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>227</v>
+        <v>26</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K33">
-        <v>0.6571428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2342,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2350,13 +2344,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3454545454545455</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2368,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K34">
-        <v>0.6441176470588236</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L34">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2392,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2421,16 +2415,16 @@
         <v>56</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K35">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2442,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2450,13 +2444,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2444444444444444</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2468,19 +2462,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K36">
-        <v>0.602510460251046</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L36">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="M36">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2492,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>95</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2500,13 +2494,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2341269841269841</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C37">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D37">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2518,19 +2512,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>193</v>
+        <v>68</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K37">
-        <v>0.576271186440678</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L37">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="M37">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2542,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>125</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2550,13 +2544,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.128686327077748</v>
+        <v>0.175</v>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2568,19 +2562,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>325</v>
+        <v>66</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K38">
-        <v>0.574468085106383</v>
+        <v>0.5815899581589958</v>
       </c>
       <c r="L38">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="M38">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2592,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2600,13 +2594,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.06</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2618,10 +2612,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K39">
         <v>0.5714285714285714</v>
@@ -2650,37 +2644,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01477272727272727</v>
+        <v>0.08</v>
       </c>
       <c r="C40">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E40">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>867</v>
+        <v>276</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K40">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2692,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2700,28 +2694,28 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01291989664082687</v>
+        <v>0.01207937877480587</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K41">
         <v>0.5652173913043478</v>
@@ -2750,37 +2744,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.01221566975568661</v>
+        <v>0.01127577319587629</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D42">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E42">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="F42">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>2345</v>
+        <v>3069</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K42">
-        <v>0.5617977528089888</v>
+        <v>0.54</v>
       </c>
       <c r="L42">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2792,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2800,37 +2794,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01141352063213345</v>
+        <v>0.01096583719949388</v>
       </c>
       <c r="C43">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E43">
-        <v>0.07000000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="F43">
-        <v>0.9299999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1126</v>
+        <v>2345</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K43">
-        <v>0.5454545454545454</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2842,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2850,37 +2844,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01063486948114728</v>
+        <v>0.009826860084230228</v>
       </c>
       <c r="C44">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E44">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="F44">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>3070</v>
+        <v>2116</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K44">
-        <v>0.5428571428571428</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L44">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2892,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2900,37 +2894,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.009817671809256662</v>
+        <v>0.006796116504854369</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D45">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E45">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="F45">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2118</v>
+        <v>5115</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K45">
-        <v>0.54</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L45">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2942,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2950,37 +2944,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.008699434536755112</v>
+        <v>0.006229903536977492</v>
       </c>
       <c r="C46">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E46">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="F46">
-        <v>0.6699999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>2279</v>
+        <v>4945</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K46">
-        <v>0.5384615384615384</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L46">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2992,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3000,37 +2994,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.007403078121955971</v>
+        <v>0.006081668114682885</v>
       </c>
       <c r="C47">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E47">
-        <v>0.46</v>
+        <v>0.33</v>
       </c>
       <c r="F47">
-        <v>0.54</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>5095</v>
+        <v>2288</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K47">
-        <v>0.5357142857142857</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3042,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3050,37 +3044,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.007010309278350516</v>
+        <v>0.005576208178438661</v>
       </c>
       <c r="C48">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E48">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="F48">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>2408</v>
+        <v>4280</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K48">
-        <v>0.4814814814814815</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3092,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3100,137 +3094,89 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.006035003017501509</v>
+        <v>0.004911220249338874</v>
       </c>
       <c r="C49">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E49">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="F49">
-        <v>0.55</v>
+        <v>0.33</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>4941</v>
+        <v>2634</v>
       </c>
       <c r="J49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="L49">
+        <v>17</v>
+      </c>
+      <c r="M49">
+        <v>17</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="J50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K50">
+        <v>0.3555555555555556</v>
+      </c>
+      <c r="L50">
+        <v>16</v>
+      </c>
+      <c r="M50">
+        <v>16</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="J51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K49">
-        <v>0.4523809523809524</v>
-      </c>
-      <c r="L49">
-        <v>19</v>
-      </c>
-      <c r="M49">
-        <v>19</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.004642525533890436</v>
-      </c>
-      <c r="C50">
-        <v>20</v>
-      </c>
-      <c r="D50">
-        <v>40</v>
-      </c>
-      <c r="E50">
-        <v>0.5</v>
-      </c>
-      <c r="F50">
-        <v>0.5</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>4288</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K50">
-        <v>0.4509803921568628</v>
-      </c>
-      <c r="L50">
-        <v>23</v>
-      </c>
-      <c r="M50">
-        <v>23</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>0.004088050314465409</v>
-      </c>
-      <c r="C51">
-        <v>13</v>
-      </c>
-      <c r="D51">
-        <v>34</v>
-      </c>
-      <c r="E51">
-        <v>0.62</v>
-      </c>
-      <c r="F51">
-        <v>0.38</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>3167</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="K51">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L51">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3242,21 +3188,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="J52" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K52">
-        <v>0.3287671232876712</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3268,21 +3214,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="J53" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K53">
-        <v>0.3205128205128205</v>
+        <v>0.3125</v>
       </c>
       <c r="L53">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3294,21 +3240,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="J54" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K54">
-        <v>0.2711864406779661</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L54">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3320,21 +3266,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="J55" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K55">
-        <v>0.265625</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3346,21 +3292,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="J56" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K56">
-        <v>0.2459016393442623</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3372,15 +3318,15 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="J57" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K57">
-        <v>0.2456140350877193</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="L57">
         <v>14</v>
@@ -3398,319 +3344,293 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>43</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K58">
-        <v>0.1388888888888889</v>
+        <v>0.03373493975903614</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N58">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="O58">
-        <v>0.06000000000000005</v>
+        <v>0.18</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>93</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K59">
-        <v>0.07027027027027027</v>
+        <v>0.02418682235195997</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K60">
-        <v>0.02838063439065109</v>
+        <v>0.01250977326035966</v>
       </c>
       <c r="L60">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="N60">
-        <v>0.9399999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="O60">
-        <v>0.06000000000000005</v>
+        <v>0.38</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>1164</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="K61">
-        <v>0.02564102564102564</v>
+        <v>0.009774436090225564</v>
       </c>
       <c r="L61">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M61">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="N61">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="O61">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>532</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K62">
-        <v>0.009012392039053699</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="L62">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M62">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N62">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="O62">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>2639</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K63">
-        <v>0.008827238335435058</v>
+        <v>0.007528230865746549</v>
       </c>
       <c r="L63">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M63">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N63">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="O63">
-        <v>0.36</v>
+        <v>0.14</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>1572</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K64">
-        <v>0.008361204013377926</v>
+        <v>0.006984387838948234</v>
       </c>
       <c r="L64">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N64">
-        <v>0.91</v>
+        <v>0.61</v>
       </c>
       <c r="O64">
-        <v>0.08999999999999997</v>
+        <v>0.39</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>2372</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="K65">
-        <v>0.008237232289950576</v>
+        <v>0.006265664160401002</v>
       </c>
       <c r="L65">
         <v>20</v>
       </c>
       <c r="M65">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N65">
-        <v>0.54</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O65">
-        <v>0.46</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>2408</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K66">
-        <v>0.006587202007528231</v>
+        <v>0.005576208178438661</v>
       </c>
       <c r="L66">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M66">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N66">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="O66">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>3167</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K67">
-        <v>0.006241466744685001</v>
+        <v>0.004028197381671702</v>
       </c>
       <c r="L67">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N67">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="O67">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>5095</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>0.005034232782923882</v>
+        <v>0.002923976608187134</v>
       </c>
       <c r="L68">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N68">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="O68">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>4941</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K69">
-        <v>0.004642525533890436</v>
-      </c>
-      <c r="L69">
-        <v>20</v>
-      </c>
-      <c r="M69">
-        <v>40</v>
-      </c>
-      <c r="N69">
-        <v>0.5</v>
-      </c>
-      <c r="O69">
-        <v>0.5</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>4288</v>
+        <v>5115</v>
       </c>
     </row>
   </sheetData>
